--- a/config/config_province.xlsx
+++ b/config/config_province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABCBBCE-C579-4749-B936-1A0031E430EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52036F7-1790-434A-89E9-77C9B377E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carrier_mapping" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="regional_aggregation" sheetId="10" r:id="rId12"/>
     <sheet name="lines_config" sheetId="11" r:id="rId13"/>
     <sheet name="links_config" sheetId="12" r:id="rId14"/>
-    <sheet name="generator_region_aggregator_rul" sheetId="13" r:id="rId15"/>
+    <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId15"/>
     <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="258">
   <si>
     <t>original_carrier</t>
   </si>
@@ -478,15 +478,9 @@
     <t>Column name to aggregate by</t>
   </si>
   <si>
-    <t>aggregate_generators_by_carrier</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>Merge generators by carrier+region</t>
-  </si>
-  <si>
     <t>demand_file</t>
   </si>
   <si>
@@ -803,6 +797,18 @@
   </si>
   <si>
     <t>충청북도</t>
+  </si>
+  <si>
+    <t>aggregate_by_region</t>
+  </si>
+  <si>
+    <t>Merge generators by region</t>
+  </si>
+  <si>
+    <t>aggregate_by_carrier</t>
+  </si>
+  <si>
+    <t>Merge generators by carrier</t>
   </si>
 </sst>
 </file>
@@ -1969,9 +1975,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
@@ -1999,43 +2007,54 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
+        <v>256</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2064,68 +2083,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2158,68 +2177,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2254,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2262,32 +2281,32 @@
         <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2298,29 +2317,29 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2328,32 +2347,32 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2364,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2372,10 +2391,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2383,10 +2402,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2394,10 +2413,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2405,10 +2424,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2416,10 +2435,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2453,13 +2472,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2467,10 +2486,10 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2478,43 +2497,43 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2522,10 +2541,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2924,146 +2943,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3086,12 +3105,12 @@
         <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5">
         <v>16688343.26</v>
@@ -3099,7 +3118,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="5">
         <v>143301641.19999999</v>
@@ -3107,7 +3126,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="5">
         <v>36577869.850000001</v>
@@ -3115,7 +3134,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B5" s="5">
         <v>43732809.119999997</v>
@@ -3123,7 +3142,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" s="5">
         <v>9343347.7799999993</v>
@@ -3131,7 +3150,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="5">
         <v>16746899.1</v>
@@ -3139,7 +3158,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5">
         <v>10169884.220000001</v>
@@ -3147,7 +3166,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" s="5">
         <v>21851299.98</v>
@@ -3155,7 +3174,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="5">
         <v>50351994.210000001</v>
@@ -3163,7 +3182,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" s="5">
         <v>4151675.83</v>
@@ -3171,7 +3190,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="5">
         <v>31919080.789999999</v>
@@ -3179,7 +3198,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="5">
         <v>25964394.539999999</v>
@@ -3187,7 +3206,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" s="5">
         <v>33580743.729999997</v>
@@ -3195,7 +3214,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="5">
         <v>21640147.100000001</v>
@@ -3203,7 +3222,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B16" s="5">
         <v>6196556.3099999996</v>
@@ -3211,7 +3230,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="5">
         <v>50036919.770000003</v>
@@ -3219,7 +3238,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B18" s="5">
         <v>27567058.050000001</v>
@@ -3227,7 +3246,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5">
         <v>549820664.83000004</v>
